--- a/EntornoServidor(PHP)/ProyectoAgenda/ListaTareasPendientesAgenda1.xlsx
+++ b/EntornoServidor(PHP)/ProyectoAgenda/ListaTareasPendientesAgenda1.xlsx
@@ -34,6 +34,9 @@
     <t>Para persistir estructuras de datos debo conocer cómo  linealizar en PHP esas estructuras de datos</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>He revisado y comprendido las funciones serialize y unserialice. El equipo ha sido capaz de persistir y recuperar la información del array hacia y desde el archivo agenda.txt</t>
   </si>
   <si>
@@ -56,9 +59,6 @@
   <si>
     <t>He revisado y comprendido las superglobales $_SERVER, $_REQUEST, $_GET y $_PUT. He revisdo y comprendido la lectura del apartado Variables From External Sources. He revisado y comprendido la lectura de las funciones de filtrado que incluye PHP en el apartado Filter de Variable and Type Related Extensions.
 El equipo ha sido capaz de realizar con éxito tareas de insertar, modificar y eliminar elementos del array tratando los datos que provienen de un formulario HTML en el cliente, informando al usuario de los problemas de consistencia/errores/ausencias en los datos, sin hacerle repetir la entrada y saneando los datos para evitar problemas de seguridad</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -66,7 +66,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,6 +77,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -110,23 +116,23 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -473,65 +479,65 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="44.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="46.5">
       <c r="A3" s="4">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="D3" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="57">
+        <v>7</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="60">
       <c r="A4" s="4">
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="82.5">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="87">
       <c r="A5" s="4">
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="133.5">
+        <v>11</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="154.5">
       <c r="A6" s="4">
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B7" s="2"/>
       <c r="C7" s="3"/>
       <c r="D7" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -539,7 +545,7 @@
       <c r="C8" s="3"/>
       <c r="D8" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -547,7 +553,7 @@
       <c r="C9" s="3"/>
       <c r="D9" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -555,7 +561,7 @@
       <c r="C10" s="3"/>
       <c r="D10" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -563,7 +569,7 @@
       <c r="C11" s="3"/>
       <c r="D11" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -571,7 +577,7 @@
       <c r="C12" s="3"/>
       <c r="D12" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="4"/>
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
